--- a/J_Graphics_XL.xlsx
+++ b/J_Graphics_XL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00217640\Desktop\Computer-Graphics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Year 3\Computer Graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{376029FE-6200-4FA0-BEF1-EC99616AE149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8BE7C-8A92-432D-BA3A-BA5B0BD6FB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{33A02D27-0B54-443A-8ABA-B568FEBCC2A9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33A02D27-0B54-443A-8ABA-B568FEBCC2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>0,0</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Back</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
   </si>
 </sst>
 </file>
@@ -86,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -177,15 +189,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -411,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -422,8 +425,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -431,29 +434,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -574,7 +575,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>7704</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>50131</xdr:rowOff>
+      <xdr:rowOff>60157</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -618,7 +619,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>185489</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>85223</xdr:rowOff>
+      <xdr:rowOff>105275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -643,6 +644,50 @@
         <a:xfrm>
           <a:off x="2561726" y="1809750"/>
           <a:ext cx="1814763" cy="1814763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>124792</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>188818</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152D236D-AFD7-C0B4-C2EF-30248EDAE030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2601292" y="3624512"/>
+          <a:ext cx="1588026" cy="1960145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -951,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE69F31-0D11-4317-A523-149810BA62B2}">
-  <dimension ref="A1:AP29"/>
+  <dimension ref="A1:AP30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1400,7 @@
       <c r="L13" s="15">
         <v>-3</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="40" t="s">
         <v>4</v>
       </c>
       <c r="X13" s="14">
@@ -1369,8 +1414,18 @@
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="J14" s="14">
+        <v>12</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>5</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -1386,6 +1441,18 @@
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="J15" s="14">
+        <v>13</v>
+      </c>
+      <c r="K15" s="20">
+        <v>2</v>
+      </c>
+      <c r="L15" s="15">
+        <v>4</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>5</v>
+      </c>
       <c r="X15" s="14">
         <v>12</v>
       </c>
@@ -1397,6 +1464,18 @@
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="J16" s="14">
+        <v>14</v>
+      </c>
+      <c r="K16" s="20">
+        <v>-3</v>
+      </c>
+      <c r="L16" s="15">
+        <v>4</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>5</v>
+      </c>
       <c r="X16" s="14">
         <v>19</v>
       </c>
@@ -1407,16 +1486,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="10:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J17" s="14"/>
-      <c r="K17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="14" t="s">
+    <row r="17" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="J17" s="14">
+        <v>15</v>
+      </c>
+      <c r="K17" s="20">
         <v>2</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="L17" s="41">
         <v>3</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>5</v>
       </c>
       <c r="X17" s="14">
         <v>22</v>
@@ -1428,17 +1509,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="10:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:34" x14ac:dyDescent="0.25">
       <c r="J18" s="14">
-        <v>12</v>
-      </c>
-      <c r="K18" s="19">
-        <v>0</v>
-      </c>
-      <c r="L18" s="40">
-        <v>0</v>
-      </c>
-      <c r="M18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="20">
+        <v>-3</v>
+      </c>
+      <c r="L18" s="41">
+        <v>3</v>
+      </c>
+      <c r="M18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="X18" s="14">
@@ -1451,158 +1532,322 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:34" x14ac:dyDescent="0.25">
       <c r="J19" s="14">
+        <v>17</v>
+      </c>
+      <c r="K19" s="20">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="41">
+        <v>3</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="J20" s="14">
+        <v>18</v>
+      </c>
+      <c r="K20" s="20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="41">
+        <v>3</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="J21" s="14">
+        <v>19</v>
+      </c>
+      <c r="K21" s="20">
+        <v>0</v>
+      </c>
+      <c r="L21" s="41">
+        <v>-2</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="14">
         <v>13</v>
       </c>
-      <c r="K19" s="20">
+      <c r="Z21" s="14">
         <v>2</v>
       </c>
-      <c r="L19" s="15">
-        <v>4</v>
-      </c>
-      <c r="M19" s="42" t="s">
+      <c r="AB21" s="14">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG21" s="14">
+        <v>14</v>
+      </c>
+      <c r="AH21" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="J22" s="14">
+        <v>20</v>
+      </c>
+      <c r="K22" s="20">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="41">
+        <v>-2</v>
+      </c>
+      <c r="M22" s="40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="10:26" x14ac:dyDescent="0.25">
-      <c r="J20" s="14">
+      <c r="X22" s="14">
+        <v>13</v>
+      </c>
+      <c r="Y22" s="14">
         <v>14</v>
       </c>
-      <c r="K20" s="20">
+      <c r="Z22" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="14">
+        <v>15</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>3</v>
+      </c>
+      <c r="AF22" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG22" s="14">
+        <v>16</v>
+      </c>
+      <c r="AH22" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="J23" s="14">
+        <v>21</v>
+      </c>
+      <c r="K23" s="20">
+        <v>0</v>
+      </c>
+      <c r="L23" s="41">
         <v>-3</v>
       </c>
-      <c r="L20" s="15">
-        <v>4</v>
-      </c>
-      <c r="M20" s="42" t="s">
+      <c r="M23" s="40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="10:26" x14ac:dyDescent="0.25">
-      <c r="J21" s="14">
+      <c r="X23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB23">
         <v>15</v>
       </c>
-      <c r="K21" s="20">
-        <v>2</v>
-      </c>
-      <c r="L21" s="43">
+      <c r="AC23">
+        <v>18</v>
+      </c>
+      <c r="AD23">
         <v>3</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="AF23">
+        <v>4</v>
+      </c>
+      <c r="AG23">
+        <v>16</v>
+      </c>
+      <c r="AH23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="J24" s="14">
+        <v>22</v>
+      </c>
+      <c r="K24" s="20">
+        <v>3</v>
+      </c>
+      <c r="L24" s="41">
+        <v>-2</v>
+      </c>
+      <c r="M24" s="40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="10:26" x14ac:dyDescent="0.25">
-      <c r="J22" s="14">
-        <v>16</v>
-      </c>
-      <c r="K22" s="20">
+      <c r="X24">
+        <v>23</v>
+      </c>
+      <c r="Y24">
+        <v>9</v>
+      </c>
+      <c r="Z24">
+        <v>11</v>
+      </c>
+      <c r="AB24">
+        <v>3</v>
+      </c>
+      <c r="AC24">
+        <v>18</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+      <c r="AF24">
+        <v>6</v>
+      </c>
+      <c r="AG24">
+        <v>4</v>
+      </c>
+      <c r="AH24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="J25" s="14">
+        <v>23</v>
+      </c>
+      <c r="K25" s="20">
+        <v>3</v>
+      </c>
+      <c r="L25" s="41">
         <v>-3</v>
       </c>
-      <c r="L22" s="43">
-        <v>3</v>
-      </c>
-      <c r="M22" s="42" t="s">
+      <c r="M25" s="40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="10:26" x14ac:dyDescent="0.25">
-      <c r="J23" s="14">
+      <c r="X25">
+        <v>23</v>
+      </c>
+      <c r="Y25">
+        <v>21</v>
+      </c>
+      <c r="Z25">
+        <v>9</v>
+      </c>
+      <c r="AB25">
+        <v>5</v>
+      </c>
+      <c r="AC25">
+        <v>18</v>
+      </c>
+      <c r="AD25">
+        <v>7</v>
+      </c>
+      <c r="AF25">
+        <v>6</v>
+      </c>
+      <c r="AG25">
         <v>17</v>
       </c>
-      <c r="K23" s="20">
-        <v>-1</v>
-      </c>
-      <c r="L23" s="43">
-        <v>3</v>
-      </c>
-      <c r="M23" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="10:26" x14ac:dyDescent="0.25">
-      <c r="J24" s="14">
+      <c r="AH25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="X26">
+        <v>9</v>
+      </c>
+      <c r="Y26">
+        <v>21</v>
+      </c>
+      <c r="Z26">
+        <v>8</v>
+      </c>
+      <c r="AB26">
+        <v>7</v>
+      </c>
+      <c r="AC26">
         <v>18</v>
       </c>
-      <c r="K24" s="20">
-        <v>0</v>
-      </c>
-      <c r="L24" s="43">
-        <v>3</v>
-      </c>
-      <c r="M24" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="10:26" x14ac:dyDescent="0.25">
-      <c r="J25" s="14">
+      <c r="AD26">
         <v>19</v>
       </c>
-      <c r="K25" s="20">
-        <v>0</v>
-      </c>
-      <c r="L25" s="43">
-        <v>-2</v>
-      </c>
-      <c r="M25" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="10:26" x14ac:dyDescent="0.25">
-      <c r="J26" s="14">
+      <c r="AF26">
+        <v>6</v>
+      </c>
+      <c r="AG26">
         <v>20</v>
       </c>
-      <c r="K26" s="20">
-        <v>-1</v>
-      </c>
-      <c r="L26" s="43">
-        <v>-2</v>
-      </c>
-      <c r="M26" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="10:26" x14ac:dyDescent="0.25">
-      <c r="J27" s="14">
+      <c r="AH26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="X27">
+        <v>8</v>
+      </c>
+      <c r="Y27">
         <v>21</v>
       </c>
-      <c r="K27" s="20">
-        <v>0</v>
-      </c>
-      <c r="L27" s="43">
-        <v>-3</v>
-      </c>
-      <c r="M27" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="10:26" x14ac:dyDescent="0.25">
-      <c r="J28" s="14">
+      <c r="Z27">
+        <v>20</v>
+      </c>
+      <c r="AB27">
+        <v>7</v>
+      </c>
+      <c r="AC27">
+        <v>19</v>
+      </c>
+      <c r="AD27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <v>19</v>
+      </c>
+      <c r="AC28">
         <v>22</v>
       </c>
-      <c r="K28" s="20">
-        <v>3</v>
-      </c>
-      <c r="L28" s="43">
-        <v>-2</v>
-      </c>
-      <c r="M28" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="10:26" x14ac:dyDescent="0.25">
-      <c r="J29" s="14">
+      <c r="AD28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="AB29">
+        <v>10</v>
+      </c>
+      <c r="AC29">
+        <v>22</v>
+      </c>
+      <c r="AD29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="AB30">
+        <v>22</v>
+      </c>
+      <c r="AC30">
         <v>23</v>
       </c>
-      <c r="K29" s="20">
-        <v>3</v>
-      </c>
-      <c r="L29" s="43">
-        <v>-3</v>
-      </c>
-      <c r="M29" s="42" t="s">
-        <v>5</v>
+      <c r="AD30">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/J_Graphics_XL.xlsx
+++ b/J_Graphics_XL.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Year 3\Computer Graphics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00217640\Desktop\ComputerGraphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8BE7C-8A92-432D-BA3A-BA5B0BD6FB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C73002-28FE-4E4F-B502-27C4470C9818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33A02D27-0B54-443A-8ABA-B568FEBCC2A9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{33A02D27-0B54-443A-8ABA-B568FEBCC2A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Graphics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="15">
   <si>
     <t>0,0</t>
   </si>
@@ -61,6 +62,15 @@
   </si>
   <si>
     <t>Right</t>
+  </si>
+  <si>
+    <t>Normals</t>
+  </si>
+  <si>
+    <t>Vertices</t>
+  </si>
+  <si>
+    <t>Faces</t>
   </si>
 </sst>
 </file>
@@ -98,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -410,11 +420,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -457,6 +547,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,13 +793,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>124792</xdr:colOff>
+      <xdr:colOff>86692</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>55144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>188818</xdr:colOff>
+      <xdr:colOff>150718</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>110289</xdr:rowOff>
     </xdr:to>
@@ -686,8 +824,233 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2601292" y="3624512"/>
+          <a:off x="2563192" y="3611144"/>
           <a:ext cx="1588026" cy="1960145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>80757</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>55502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A3C72F-0496-47F7-ABE4-BFDBB40D7888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4674053" y="476249"/>
+          <a:ext cx="1734025" cy="1559092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>434</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28169</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD0A9DD-CD0A-4B5F-B8AE-D21ED0E7CA84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="47625"/>
+          <a:ext cx="1755755" cy="1565776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>156483</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>202316</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3724B585-F6F6-46FD-9A8F-FA3544460E6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2354035" y="1639660"/>
+          <a:ext cx="1653269" cy="1719513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>147888</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6E1817-5E2C-4CE2-AF0E-66043EE2D1D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4660446" y="2197554"/>
+          <a:ext cx="1814763" cy="1817436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>93889</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>102961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>96683</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914A2523-DDBF-455A-95D8-C8946F1E5942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7275739" y="1906361"/>
+          <a:ext cx="1583944" cy="1986906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -998,11 +1361,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE69F31-0D11-4317-A523-149810BA62B2}">
   <dimension ref="A1:AP30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12:AN23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="39" max="39" width="2.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="4"/>
@@ -1366,6 +1732,9 @@
       <c r="Z11" s="14">
         <v>14</v>
       </c>
+      <c r="AL11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J12" s="14">
@@ -1389,6 +1758,9 @@
       <c r="Z12" s="14">
         <v>16</v>
       </c>
+      <c r="AL12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J13" s="14">
@@ -1411,6 +1783,15 @@
       </c>
       <c r="Z13" s="14">
         <v>17</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
@@ -1439,6 +1820,9 @@
       <c r="Z14" s="14">
         <v>20</v>
       </c>
+      <c r="AL14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J15" s="14">
@@ -1462,6 +1846,15 @@
       <c r="Z15" s="14">
         <v>20</v>
       </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>-1</v>
+      </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J16" s="14">
@@ -1485,8 +1878,11 @@
       <c r="Z16" s="14">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="AL16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J17" s="14">
         <v>15</v>
       </c>
@@ -1508,8 +1904,17 @@
       <c r="Z17" s="14">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J18" s="14">
         <v>16</v>
       </c>
@@ -1531,8 +1936,11 @@
       <c r="Z18" s="14">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="AL18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J19" s="14">
         <v>17</v>
       </c>
@@ -1545,8 +1953,17 @@
       <c r="M19" s="40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="AL19">
+        <v>-1</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J20" s="14">
         <v>18</v>
       </c>
@@ -1568,8 +1985,11 @@
       <c r="AF20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="AL20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J21" s="14">
         <v>19</v>
       </c>
@@ -1609,8 +2029,17 @@
       <c r="AH21" s="14">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J22" s="14">
         <v>20</v>
       </c>
@@ -1650,8 +2079,11 @@
       <c r="AH22" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="AL22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J23" s="14">
         <v>21</v>
       </c>
@@ -1685,8 +2117,17 @@
       <c r="AH23">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>-1</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J24" s="14">
         <v>22</v>
       </c>
@@ -1727,7 +2168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="10:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J25" s="14">
         <v>23</v>
       </c>
@@ -1768,7 +2209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="10:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="10:40" x14ac:dyDescent="0.25">
       <c r="X26">
         <v>9</v>
       </c>
@@ -1797,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="10:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="10:40" x14ac:dyDescent="0.25">
       <c r="X27">
         <v>8</v>
       </c>
@@ -1817,7 +2258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="10:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="10:40" x14ac:dyDescent="0.25">
       <c r="AB28">
         <v>19</v>
       </c>
@@ -1828,7 +2269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="10:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="10:40" x14ac:dyDescent="0.25">
       <c r="AB29">
         <v>10</v>
       </c>
@@ -1839,7 +2280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="10:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="10:40" x14ac:dyDescent="0.25">
       <c r="AB30">
         <v>22</v>
       </c>
@@ -1855,4 +2296,1084 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D26B6B1-A5C7-47CA-927A-D6A160794AE4}">
+  <dimension ref="A1:AW27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AU19" sqref="AU19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" style="44"/>
+    <col min="3" max="3" width="3.42578125" style="44" customWidth="1"/>
+    <col min="4" max="34" width="2.85546875" style="44"/>
+    <col min="35" max="37" width="3.28515625" style="44" customWidth="1"/>
+    <col min="38" max="40" width="3.140625" style="44" customWidth="1"/>
+    <col min="41" max="46" width="2.85546875" style="44"/>
+    <col min="47" max="49" width="4.42578125" style="44" customWidth="1"/>
+    <col min="50" max="16384" width="2.85546875" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="V1" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="AI1" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AU1" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+    </row>
+    <row r="2" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="17"/>
+      <c r="M2"/>
+      <c r="V2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>0</v>
+      </c>
+      <c r="B3" s="46">
+        <v>0</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="V3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="AI3" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AU3" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A4" s="53">
+        <v>-2</v>
+      </c>
+      <c r="B4" s="46">
+        <v>4</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="V4" s="14">
+        <v>1</v>
+      </c>
+      <c r="W4" s="14">
+        <v>4</v>
+      </c>
+      <c r="X4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>13</v>
+      </c>
+      <c r="AK4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>14</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>16</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A5" s="53">
+        <v>3</v>
+      </c>
+      <c r="B5" s="46">
+        <v>4</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="V5" s="14">
+        <v>1</v>
+      </c>
+      <c r="W5" s="14">
+        <v>3</v>
+      </c>
+      <c r="X5" s="14">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="14">
+        <v>13</v>
+      </c>
+      <c r="AJ5" s="14">
+        <v>14</v>
+      </c>
+      <c r="AK5" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="14">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="14">
+        <v>16</v>
+      </c>
+      <c r="AN5" s="14">
+        <v>4</v>
+      </c>
+      <c r="AU5" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
+        <v>-2</v>
+      </c>
+      <c r="B6" s="46">
+        <v>3</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="V6" s="14">
+        <v>5</v>
+      </c>
+      <c r="W6" s="14">
+        <v>0</v>
+      </c>
+      <c r="X6" s="14">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6">
+        <v>4</v>
+      </c>
+      <c r="AM6">
+        <v>16</v>
+      </c>
+      <c r="AN6">
+        <v>17</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53">
+        <v>3</v>
+      </c>
+      <c r="B7" s="46">
+        <v>3</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="V7" s="14">
+        <v>6</v>
+      </c>
+      <c r="W7" s="14">
+        <v>0</v>
+      </c>
+      <c r="X7" s="14">
+        <v>8</v>
+      </c>
+      <c r="AI7">
+        <v>23</v>
+      </c>
+      <c r="AJ7">
+        <v>9</v>
+      </c>
+      <c r="AK7">
+        <v>11</v>
+      </c>
+      <c r="AL7">
+        <v>6</v>
+      </c>
+      <c r="AM7">
+        <v>4</v>
+      </c>
+      <c r="AN7">
+        <v>17</v>
+      </c>
+      <c r="AU7" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
+    </row>
+    <row r="8" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="53">
+        <v>0</v>
+      </c>
+      <c r="B8" s="46">
+        <v>3</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="9"/>
+      <c r="K8"/>
+      <c r="L8" s="18"/>
+      <c r="M8"/>
+      <c r="V8" s="14">
+        <v>0</v>
+      </c>
+      <c r="W8" s="14">
+        <v>7</v>
+      </c>
+      <c r="X8" s="14">
+        <v>8</v>
+      </c>
+      <c r="AI8">
+        <v>23</v>
+      </c>
+      <c r="AJ8">
+        <v>21</v>
+      </c>
+      <c r="AK8">
+        <v>9</v>
+      </c>
+      <c r="AL8">
+        <v>6</v>
+      </c>
+      <c r="AM8">
+        <v>17</v>
+      </c>
+      <c r="AN8">
+        <v>20</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53">
+        <v>1</v>
+      </c>
+      <c r="B9" s="46">
+        <v>3</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="V9" s="14">
+        <v>7</v>
+      </c>
+      <c r="W9" s="14">
+        <v>9</v>
+      </c>
+      <c r="X9" s="14">
+        <v>8</v>
+      </c>
+      <c r="AI9">
+        <v>9</v>
+      </c>
+      <c r="AJ9">
+        <v>21</v>
+      </c>
+      <c r="AK9">
+        <v>8</v>
+      </c>
+      <c r="AL9">
+        <v>6</v>
+      </c>
+      <c r="AM9">
+        <v>20</v>
+      </c>
+      <c r="AN9">
+        <v>8</v>
+      </c>
+      <c r="AU9" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+    </row>
+    <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53">
+        <v>0</v>
+      </c>
+      <c r="B10" s="46">
+        <v>-2</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="33"/>
+      <c r="V10" s="14">
+        <v>10</v>
+      </c>
+      <c r="W10" s="14">
+        <v>11</v>
+      </c>
+      <c r="X10" s="14">
+        <v>7</v>
+      </c>
+      <c r="AI10">
+        <v>8</v>
+      </c>
+      <c r="AJ10">
+        <v>21</v>
+      </c>
+      <c r="AK10">
+        <v>20</v>
+      </c>
+      <c r="AU10">
+        <v>-1</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="53">
+        <v>1</v>
+      </c>
+      <c r="B11" s="46">
+        <v>-2</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="32"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11" s="14">
+        <v>11</v>
+      </c>
+      <c r="W11" s="14">
+        <v>9</v>
+      </c>
+      <c r="X11" s="14">
+        <v>7</v>
+      </c>
+      <c r="AI11" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AU11" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV11" s="42"/>
+      <c r="AW11" s="42"/>
+    </row>
+    <row r="12" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53">
+        <v>0</v>
+      </c>
+      <c r="B12" s="46">
+        <v>-3</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12"/>
+      <c r="K12" s="26"/>
+      <c r="L12"/>
+      <c r="V12" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="AI12" s="14">
+        <v>13</v>
+      </c>
+      <c r="AJ12" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A13" s="53">
+        <v>-3</v>
+      </c>
+      <c r="B13" s="46">
+        <v>-2</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="31"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="V13" s="14">
+        <v>13</v>
+      </c>
+      <c r="W13" s="14">
+        <v>16</v>
+      </c>
+      <c r="X13" s="14">
+        <v>14</v>
+      </c>
+      <c r="AI13" s="14">
+        <v>13</v>
+      </c>
+      <c r="AJ13" s="14">
+        <v>15</v>
+      </c>
+      <c r="AK13" s="14">
+        <v>3</v>
+      </c>
+      <c r="AU13" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV13" s="42"/>
+      <c r="AW13" s="42"/>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A14" s="53">
+        <v>-3</v>
+      </c>
+      <c r="B14" s="46">
+        <v>-3</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="31"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="V14" s="14">
+        <v>13</v>
+      </c>
+      <c r="W14" s="14">
+        <v>15</v>
+      </c>
+      <c r="X14" s="14">
+        <v>16</v>
+      </c>
+      <c r="AI14">
+        <v>15</v>
+      </c>
+      <c r="AJ14">
+        <v>18</v>
+      </c>
+      <c r="AK14">
+        <v>3</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>-1</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A15" s="53">
+        <v>0</v>
+      </c>
+      <c r="B15" s="46">
+        <v>0</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="31"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="V15" s="14">
+        <v>18</v>
+      </c>
+      <c r="W15" s="14">
+        <v>12</v>
+      </c>
+      <c r="X15" s="14">
+        <v>17</v>
+      </c>
+      <c r="AI15">
+        <v>3</v>
+      </c>
+      <c r="AJ15">
+        <v>18</v>
+      </c>
+      <c r="AK15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53">
+        <v>-2</v>
+      </c>
+      <c r="B16" s="46">
+        <v>4</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="32"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="V16" s="14">
+        <v>16</v>
+      </c>
+      <c r="W16" s="14">
+        <v>12</v>
+      </c>
+      <c r="X16" s="14">
+        <v>20</v>
+      </c>
+      <c r="AI16">
+        <v>5</v>
+      </c>
+      <c r="AJ16">
+        <v>18</v>
+      </c>
+      <c r="AK16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="53">
+        <v>3</v>
+      </c>
+      <c r="B17" s="46">
+        <v>4</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="30"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="V17" s="14">
+        <v>12</v>
+      </c>
+      <c r="W17" s="14">
+        <v>19</v>
+      </c>
+      <c r="X17" s="14">
+        <v>20</v>
+      </c>
+      <c r="AI17">
+        <v>7</v>
+      </c>
+      <c r="AJ17">
+        <v>18</v>
+      </c>
+      <c r="AK17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53">
+        <v>-2</v>
+      </c>
+      <c r="B18" s="47">
+        <v>3</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="V18" s="14">
+        <v>19</v>
+      </c>
+      <c r="W18" s="14">
+        <v>21</v>
+      </c>
+      <c r="X18" s="14">
+        <v>20</v>
+      </c>
+      <c r="AI18">
+        <v>7</v>
+      </c>
+      <c r="AJ18">
+        <v>19</v>
+      </c>
+      <c r="AK18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="53">
+        <v>3</v>
+      </c>
+      <c r="B19" s="47">
+        <v>3</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="V19" s="14">
+        <v>22</v>
+      </c>
+      <c r="W19" s="14">
+        <v>23</v>
+      </c>
+      <c r="X19" s="14">
+        <v>19</v>
+      </c>
+      <c r="AI19">
+        <v>19</v>
+      </c>
+      <c r="AJ19">
+        <v>22</v>
+      </c>
+      <c r="AK19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="53">
+        <v>1</v>
+      </c>
+      <c r="B20" s="47">
+        <v>3</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="4"/>
+      <c r="H20"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="2"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="V20" s="14">
+        <v>23</v>
+      </c>
+      <c r="W20" s="14">
+        <v>21</v>
+      </c>
+      <c r="X20" s="14">
+        <v>19</v>
+      </c>
+      <c r="AI20">
+        <v>10</v>
+      </c>
+      <c r="AJ20">
+        <v>22</v>
+      </c>
+      <c r="AK20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53">
+        <v>0</v>
+      </c>
+      <c r="B21" s="47">
+        <v>3</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="11"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="AI21">
+        <v>22</v>
+      </c>
+      <c r="AJ21">
+        <v>23</v>
+      </c>
+      <c r="AK21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="53">
+        <v>0</v>
+      </c>
+      <c r="B22" s="47">
+        <v>-2</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="11"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="53">
+        <v>1</v>
+      </c>
+      <c r="B23" s="47">
+        <v>-2</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="11"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
+        <v>0</v>
+      </c>
+      <c r="B24" s="47">
+        <v>-3</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="11"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="53">
+        <v>-3</v>
+      </c>
+      <c r="B25" s="47">
+        <v>-2</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="55">
+        <v>-3</v>
+      </c>
+      <c r="B26" s="56">
+        <v>-3</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="AU13:AW13"/>
+    <mergeCell ref="AU11:AW11"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AU3:AW3"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AU7:AW7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="AI11:AK11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/J_Graphics_XL.xlsx
+++ b/J_Graphics_XL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00217640\Desktop\ComputerGraphics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00217640\Desktop\Computer-Graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C73002-28FE-4E4F-B502-27C4470C9818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52437F1D-1F36-4E27-B2D6-A14FEDB7C033}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{33A02D27-0B54-443A-8ABA-B568FEBCC2A9}"/>
   </bookViews>
@@ -548,12 +548,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -563,15 +557,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -593,6 +578,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -885,16 +885,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>98879</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>434</xdr:colOff>
+      <xdr:colOff>140134</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>28169</xdr:rowOff>
+      <xdr:rowOff>21819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -917,8 +917,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2286000" y="47625"/>
-          <a:ext cx="1755755" cy="1565776"/>
+          <a:off x="2422979" y="41275"/>
+          <a:ext cx="1755755" cy="1580744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2300,30 +2300,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D26B6B1-A5C7-47CA-927A-D6A160794AE4}">
-  <dimension ref="A1:AW27"/>
+  <dimension ref="A1:AW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AU19" sqref="AU19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.85546875" style="44"/>
-    <col min="3" max="3" width="3.42578125" style="44" customWidth="1"/>
-    <col min="4" max="34" width="2.85546875" style="44"/>
-    <col min="35" max="37" width="3.28515625" style="44" customWidth="1"/>
-    <col min="38" max="40" width="3.140625" style="44" customWidth="1"/>
-    <col min="41" max="46" width="2.85546875" style="44"/>
-    <col min="47" max="49" width="4.42578125" style="44" customWidth="1"/>
-    <col min="50" max="16384" width="2.85546875" style="44"/>
+    <col min="1" max="2" width="2.85546875" style="42"/>
+    <col min="3" max="3" width="3.42578125" style="42" customWidth="1"/>
+    <col min="4" max="34" width="2.85546875" style="42"/>
+    <col min="35" max="37" width="3.28515625" style="42" customWidth="1"/>
+    <col min="38" max="40" width="3.140625" style="42" customWidth="1"/>
+    <col min="41" max="46" width="2.85546875" style="42"/>
+    <col min="47" max="49" width="4.42578125" style="42" customWidth="1"/>
+    <col min="50" max="16384" width="2.85546875" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1" s="4"/>
@@ -2333,33 +2333,33 @@
       <c r="K1" s="4"/>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="AI1" s="43" t="s">
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="AI1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AU1" s="43" t="s">
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AU1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
     </row>
     <row r="2" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="47" t="s">
         <v>3</v>
       </c>
       <c r="E2"/>
@@ -2371,51 +2371,51 @@
       <c r="K2" s="7"/>
       <c r="L2" s="17"/>
       <c r="M2"/>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="44" t="s">
+      <c r="X2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="44" t="s">
+      <c r="AK2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="AM2" s="44" t="s">
+      <c r="AM2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="44" t="s">
+      <c r="AN2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="AV2" s="44" t="s">
+      <c r="AV2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="44" t="s">
+      <c r="AW2" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
-        <v>0</v>
-      </c>
-      <c r="B3" s="46">
-        <v>0</v>
-      </c>
-      <c r="C3" s="54" t="s">
+      <c r="A3" s="48">
+        <v>0</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>4</v>
       </c>
       <c r="E3"/>
@@ -2427,35 +2427,35 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="V3" s="43" t="s">
+      <c r="V3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="AI3" s="43" t="s">
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="AI3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="42" t="s">
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AU3" s="42" t="s">
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AU3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
+      <c r="A4" s="48">
         <v>-2</v>
       </c>
-      <c r="B4" s="46">
-        <v>4</v>
-      </c>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="44">
+        <v>4</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>4</v>
       </c>
       <c r="E4"/>
@@ -2505,13 +2505,13 @@
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
-        <v>3</v>
-      </c>
-      <c r="B5" s="46">
-        <v>4</v>
-      </c>
-      <c r="C5" s="54" t="s">
+      <c r="A5" s="48">
+        <v>3</v>
+      </c>
+      <c r="B5" s="44">
+        <v>4</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>4</v>
       </c>
       <c r="E5"/>
@@ -2552,20 +2552,20 @@
       <c r="AN5" s="14">
         <v>4</v>
       </c>
-      <c r="AU5" s="42" t="s">
+      <c r="AU5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
+      <c r="A6" s="48">
         <v>-2</v>
       </c>
-      <c r="B6" s="46">
-        <v>3</v>
-      </c>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="44">
+        <v>3</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="9"/>
@@ -2586,11 +2586,11 @@
       <c r="X6" s="14">
         <v>6</v>
       </c>
-      <c r="AI6" s="42" t="s">
+      <c r="AI6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="42"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
       <c r="AL6">
         <v>4</v>
       </c>
@@ -2611,13 +2611,13 @@
       </c>
     </row>
     <row r="7" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53">
-        <v>3</v>
-      </c>
-      <c r="B7" s="46">
-        <v>3</v>
-      </c>
-      <c r="C7" s="54" t="s">
+      <c r="A7" s="48">
+        <v>3</v>
+      </c>
+      <c r="B7" s="44">
+        <v>3</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="9"/>
@@ -2656,20 +2656,20 @@
       <c r="AN7">
         <v>17</v>
       </c>
-      <c r="AU7" s="42" t="s">
+      <c r="AU7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
     </row>
     <row r="8" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="53">
-        <v>0</v>
-      </c>
-      <c r="B8" s="46">
-        <v>3</v>
-      </c>
-      <c r="C8" s="54" t="s">
+      <c r="A8" s="48">
+        <v>0</v>
+      </c>
+      <c r="B8" s="44">
+        <v>3</v>
+      </c>
+      <c r="C8" s="49" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="1"/>
@@ -2719,13 +2719,13 @@
       </c>
     </row>
     <row r="9" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53">
+      <c r="A9" s="48">
         <v>1</v>
       </c>
-      <c r="B9" s="46">
-        <v>3</v>
-      </c>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="44">
+        <v>3</v>
+      </c>
+      <c r="C9" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D9"/>
@@ -2765,20 +2765,20 @@
       <c r="AN9">
         <v>8</v>
       </c>
-      <c r="AU9" s="42" t="s">
+      <c r="AU9" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53"/>
     </row>
     <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53">
-        <v>0</v>
-      </c>
-      <c r="B10" s="46">
+      <c r="A10" s="48">
+        <v>0</v>
+      </c>
+      <c r="B10" s="44">
         <v>-2</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D10"/>
@@ -2819,13 +2819,13 @@
       </c>
     </row>
     <row r="11" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53">
+      <c r="A11" s="48">
         <v>1</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="44">
         <v>-2</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D11"/>
@@ -2851,25 +2851,25 @@
       <c r="X11" s="14">
         <v>7</v>
       </c>
-      <c r="AI11" s="42" t="s">
+      <c r="AI11" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="42"/>
-      <c r="AU11" s="42" t="s">
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AU11" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AV11" s="42"/>
-      <c r="AW11" s="42"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
     </row>
     <row r="12" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53">
-        <v>0</v>
-      </c>
-      <c r="B12" s="46">
+      <c r="A12" s="48">
+        <v>0</v>
+      </c>
+      <c r="B12" s="44">
         <v>-3</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D12"/>
@@ -2881,11 +2881,11 @@
       <c r="J12"/>
       <c r="K12" s="26"/>
       <c r="L12"/>
-      <c r="V12" s="42" t="s">
+      <c r="V12" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
       <c r="AI12" s="14">
         <v>13</v>
       </c>
@@ -2906,13 +2906,13 @@
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A13" s="53">
+      <c r="A13" s="48">
         <v>-3</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="44">
         <v>-2</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D13"/>
@@ -2942,20 +2942,20 @@
       <c r="AK13" s="14">
         <v>3</v>
       </c>
-      <c r="AU13" s="42" t="s">
+      <c r="AU13" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AV13" s="42"/>
-      <c r="AW13" s="42"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
+      <c r="A14" s="48">
         <v>-3</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="44">
         <v>-3</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D14"/>
@@ -2996,13 +2996,13 @@
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A15" s="53">
-        <v>0</v>
-      </c>
-      <c r="B15" s="46">
-        <v>0</v>
-      </c>
-      <c r="C15" s="54" t="s">
+      <c r="A15" s="48">
+        <v>0</v>
+      </c>
+      <c r="B15" s="44">
+        <v>0</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D15"/>
@@ -3034,13 +3034,13 @@
       </c>
     </row>
     <row r="16" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53">
+      <c r="A16" s="48">
         <v>-2</v>
       </c>
-      <c r="B16" s="46">
-        <v>4</v>
-      </c>
-      <c r="C16" s="54" t="s">
+      <c r="B16" s="44">
+        <v>4</v>
+      </c>
+      <c r="C16" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D16"/>
@@ -3072,13 +3072,13 @@
       </c>
     </row>
     <row r="17" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53">
-        <v>3</v>
-      </c>
-      <c r="B17" s="46">
-        <v>4</v>
-      </c>
-      <c r="C17" s="54" t="s">
+      <c r="A17" s="48">
+        <v>3</v>
+      </c>
+      <c r="B17" s="44">
+        <v>4</v>
+      </c>
+      <c r="C17" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D17"/>
@@ -3110,13 +3110,13 @@
       </c>
     </row>
     <row r="18" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53">
+      <c r="A18" s="48">
         <v>-2</v>
       </c>
-      <c r="B18" s="47">
-        <v>3</v>
-      </c>
-      <c r="C18" s="54" t="s">
+      <c r="B18" s="45">
+        <v>3</v>
+      </c>
+      <c r="C18" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D18"/>
@@ -3148,13 +3148,13 @@
       </c>
     </row>
     <row r="19" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53">
-        <v>3</v>
-      </c>
-      <c r="B19" s="47">
-        <v>3</v>
-      </c>
-      <c r="C19" s="54" t="s">
+      <c r="A19" s="48">
+        <v>3</v>
+      </c>
+      <c r="B19" s="45">
+        <v>3</v>
+      </c>
+      <c r="C19" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E19"/>
@@ -3185,13 +3185,13 @@
       </c>
     </row>
     <row r="20" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53">
+      <c r="A20" s="48">
         <v>1</v>
       </c>
-      <c r="B20" s="47">
-        <v>3</v>
-      </c>
-      <c r="C20" s="54" t="s">
+      <c r="B20" s="45">
+        <v>3</v>
+      </c>
+      <c r="C20" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="1"/>
@@ -3222,13 +3222,13 @@
       </c>
     </row>
     <row r="21" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53">
-        <v>0</v>
-      </c>
-      <c r="B21" s="47">
-        <v>3</v>
-      </c>
-      <c r="C21" s="54" t="s">
+      <c r="A21" s="48">
+        <v>0</v>
+      </c>
+      <c r="B21" s="45">
+        <v>3</v>
+      </c>
+      <c r="C21" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E21"/>
@@ -3250,13 +3250,13 @@
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" s="53">
-        <v>0</v>
-      </c>
-      <c r="B22" s="47">
+      <c r="A22" s="48">
+        <v>0</v>
+      </c>
+      <c r="B22" s="45">
         <v>-2</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E22"/>
@@ -3269,13 +3269,13 @@
       <c r="L22"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="53">
+      <c r="A23" s="48">
         <v>1</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="45">
         <v>-2</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E23"/>
@@ -3288,13 +3288,13 @@
       <c r="L23"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="53">
-        <v>0</v>
-      </c>
-      <c r="B24" s="47">
+      <c r="A24" s="48">
+        <v>0</v>
+      </c>
+      <c r="B24" s="45">
         <v>-3</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E24"/>
@@ -3307,13 +3307,13 @@
       <c r="L24"/>
     </row>
     <row r="25" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53">
+      <c r="A25" s="48">
         <v>-3</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="45">
         <v>-2</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E25"/>
@@ -3326,13 +3326,13 @@
       <c r="L25"/>
     </row>
     <row r="26" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55">
+      <c r="A26" s="50">
         <v>-3</v>
       </c>
-      <c r="B26" s="56">
+      <c r="B26" s="51">
         <v>-3</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="52" t="s">
         <v>5</v>
       </c>
       <c r="E26"/>
@@ -3354,8 +3354,159 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
+    <row r="30" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L30"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+    </row>
+    <row r="31" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="36"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="4"/>
+      <c r="V31"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="2"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+    </row>
+    <row r="32" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L32"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32"/>
+      <c r="R32" s="26"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="11"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+    </row>
+    <row r="33" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="31"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="11"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+    </row>
+    <row r="34" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="31"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="11"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+    </row>
+    <row r="35" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L35" s="9"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="31"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="11"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+    </row>
+    <row r="36" spans="12:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="37"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="32"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36"/>
+    </row>
+    <row r="37" spans="12:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="24"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="30"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37"/>
+    </row>
+    <row r="38" spans="12:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="27"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="29"/>
+      <c r="R38"/>
+      <c r="S38"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="AI11:AK11"/>
     <mergeCell ref="AU13:AW13"/>
     <mergeCell ref="AU11:AW11"/>
     <mergeCell ref="AL3:AN3"/>
@@ -3365,13 +3516,6 @@
     <mergeCell ref="AU5:AW5"/>
     <mergeCell ref="AU9:AW9"/>
     <mergeCell ref="AU7:AW7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="AI11:AK11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/J_Graphics_XL.xlsx
+++ b/J_Graphics_XL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00217640\Desktop\Computer-Graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52437F1D-1F36-4E27-B2D6-A14FEDB7C033}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907A9AB4-1337-43F2-B5E7-68BAF897C667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{33A02D27-0B54-443A-8ABA-B568FEBCC2A9}"/>
   </bookViews>
@@ -580,12 +580,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,6 +588,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,16 +885,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>98879</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136979</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>140134</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>21819</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>178234</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>205969</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -917,7 +917,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2422979" y="41275"/>
+          <a:off x="2270579" y="15875"/>
           <a:ext cx="1755755" cy="1580744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2302,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D26B6B1-A5C7-47CA-927A-D6A160794AE4}">
   <dimension ref="A1:AW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:Z39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,11 +2319,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1" s="4"/>
@@ -2333,24 +2333,24 @@
       <c r="K1" s="4"/>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="AI1" s="54" t="s">
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="AI1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AU1" s="54" t="s">
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AU1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
     </row>
     <row r="2" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -2427,26 +2427,26 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="V3" s="54" t="s">
+      <c r="V3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="AI3" s="54" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="AI3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="53" t="s">
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AU3" s="53" t="s">
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AU3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="48">
@@ -2552,11 +2552,11 @@
       <c r="AN5" s="14">
         <v>4</v>
       </c>
-      <c r="AU5" s="53" t="s">
+      <c r="AU5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
+      <c r="AV5" s="57"/>
+      <c r="AW5" s="57"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="48">
@@ -2586,11 +2586,11 @@
       <c r="X6" s="14">
         <v>6</v>
       </c>
-      <c r="AI6" s="53" t="s">
+      <c r="AI6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
       <c r="AL6">
         <v>4</v>
       </c>
@@ -2656,11 +2656,11 @@
       <c r="AN7">
         <v>17</v>
       </c>
-      <c r="AU7" s="53" t="s">
+      <c r="AU7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
     </row>
     <row r="8" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48">
@@ -2765,11 +2765,11 @@
       <c r="AN9">
         <v>8</v>
       </c>
-      <c r="AU9" s="53" t="s">
+      <c r="AU9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AV9" s="53"/>
-      <c r="AW9" s="53"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="57"/>
     </row>
     <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48">
@@ -2851,16 +2851,16 @@
       <c r="X11" s="14">
         <v>7</v>
       </c>
-      <c r="AI11" s="53" t="s">
+      <c r="AI11" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AU11" s="53" t="s">
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="57"/>
+      <c r="AU11" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AV11" s="53"/>
-      <c r="AW11" s="53"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="57"/>
     </row>
     <row r="12" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48">
@@ -2881,11 +2881,11 @@
       <c r="J12"/>
       <c r="K12" s="26"/>
       <c r="L12"/>
-      <c r="V12" s="53" t="s">
+      <c r="V12" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
       <c r="AI12" s="14">
         <v>13</v>
       </c>
@@ -2942,11 +2942,11 @@
       <c r="AK13" s="14">
         <v>3</v>
       </c>
-      <c r="AU13" s="53" t="s">
+      <c r="AU13" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="57"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="48">
@@ -3500,13 +3500,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="AI11:AK11"/>
     <mergeCell ref="AU13:AW13"/>
     <mergeCell ref="AU11:AW11"/>
     <mergeCell ref="AL3:AN3"/>
@@ -3516,6 +3509,13 @@
     <mergeCell ref="AU5:AW5"/>
     <mergeCell ref="AU9:AW9"/>
     <mergeCell ref="AU7:AW7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="AI11:AK11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/J_Graphics_XL.xlsx
+++ b/J_Graphics_XL.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00217640\Desktop\Computer-Graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907A9AB4-1337-43F2-B5E7-68BAF897C667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03594F13-4152-4C6C-9A4E-43FDD427EDC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{33A02D27-0B54-443A-8ABA-B568FEBCC2A9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{33A02D27-0B54-443A-8ABA-B568FEBCC2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Graphics" sheetId="2" r:id="rId2"/>
+    <sheet name="VerticesFaces" sheetId="2" r:id="rId2"/>
+    <sheet name="Textures" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -580,6 +581,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,12 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,6 +1063,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F71860-7E80-4696-8711-5EF018C2825C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="4257675" cy="2997750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>188548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F17AAE-8019-4BA1-B557-9EA754701E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038726" y="0"/>
+          <a:ext cx="4629150" cy="3046048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2302,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D26B6B1-A5C7-47CA-927A-D6A160794AE4}">
   <dimension ref="A1:AW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AP26" sqref="AP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,11 +2413,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1" s="4"/>
@@ -2333,24 +2427,24 @@
       <c r="K1" s="4"/>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="V1" s="56" t="s">
+      <c r="V1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="AI1" s="56" t="s">
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="AI1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AU1" s="56" t="s">
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AU1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
     </row>
     <row r="2" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -2427,26 +2521,26 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="V3" s="56" t="s">
+      <c r="V3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="AI3" s="56" t="s">
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="AI3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="57" t="s">
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AU3" s="57" t="s">
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AU3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="48">
@@ -2552,11 +2646,11 @@
       <c r="AN5" s="14">
         <v>4</v>
       </c>
-      <c r="AU5" s="57" t="s">
+      <c r="AU5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AV5" s="57"/>
-      <c r="AW5" s="57"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="48">
@@ -2586,11 +2680,11 @@
       <c r="X6" s="14">
         <v>6</v>
       </c>
-      <c r="AI6" s="57" t="s">
+      <c r="AI6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AJ6" s="57"/>
-      <c r="AK6" s="57"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
       <c r="AL6">
         <v>4</v>
       </c>
@@ -2656,11 +2750,11 @@
       <c r="AN7">
         <v>17</v>
       </c>
-      <c r="AU7" s="57" t="s">
+      <c r="AU7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="57"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
     </row>
     <row r="8" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48">
@@ -2765,11 +2859,11 @@
       <c r="AN9">
         <v>8</v>
       </c>
-      <c r="AU9" s="57" t="s">
+      <c r="AU9" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AV9" s="57"/>
-      <c r="AW9" s="57"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53"/>
     </row>
     <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48">
@@ -2851,16 +2945,16 @@
       <c r="X11" s="14">
         <v>7</v>
       </c>
-      <c r="AI11" s="57" t="s">
+      <c r="AI11" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="57"/>
-      <c r="AU11" s="57" t="s">
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AU11" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AV11" s="57"/>
-      <c r="AW11" s="57"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
     </row>
     <row r="12" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48">
@@ -2881,11 +2975,11 @@
       <c r="J12"/>
       <c r="K12" s="26"/>
       <c r="L12"/>
-      <c r="V12" s="57" t="s">
+      <c r="V12" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
       <c r="AI12" s="14">
         <v>13</v>
       </c>
@@ -2942,11 +3036,11 @@
       <c r="AK13" s="14">
         <v>3</v>
       </c>
-      <c r="AU13" s="57" t="s">
+      <c r="AU13" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AV13" s="57"/>
-      <c r="AW13" s="57"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="48">
@@ -3500,6 +3594,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="AI11:AK11"/>
     <mergeCell ref="AU13:AW13"/>
     <mergeCell ref="AU11:AW11"/>
     <mergeCell ref="AL3:AN3"/>
@@ -3509,15 +3610,23 @@
     <mergeCell ref="AU5:AW5"/>
     <mergeCell ref="AU9:AW9"/>
     <mergeCell ref="AU7:AW7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="AI11:AK11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6656B1-986B-4CD6-84BB-FEF14906E93B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/J_Graphics_XL.xlsx
+++ b/J_Graphics_XL.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00217640\Desktop\Computer-Graphics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00217640\Desktop\CG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03594F13-4152-4C6C-9A4E-43FDD427EDC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51519C21-133C-4BA5-A4A8-A037FB630AF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{33A02D27-0B54-443A-8ABA-B568FEBCC2A9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{33A02D27-0B54-443A-8ABA-B568FEBCC2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="VerticesFaces" sheetId="2" r:id="rId2"/>
     <sheet name="Textures" sheetId="3" r:id="rId3"/>
+    <sheet name="Clipping" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -581,12 +582,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,6 +590,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2413,11 +2414,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1" s="4"/>
@@ -2427,24 +2428,24 @@
       <c r="K1" s="4"/>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="AI1" s="54" t="s">
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="AI1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AU1" s="54" t="s">
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AU1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
     </row>
     <row r="2" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -2521,26 +2522,26 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="V3" s="54" t="s">
+      <c r="V3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="AI3" s="54" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="AI3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="53" t="s">
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AU3" s="53" t="s">
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AU3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="48">
@@ -2646,11 +2647,11 @@
       <c r="AN5" s="14">
         <v>4</v>
       </c>
-      <c r="AU5" s="53" t="s">
+      <c r="AU5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
+      <c r="AV5" s="57"/>
+      <c r="AW5" s="57"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="48">
@@ -2680,11 +2681,11 @@
       <c r="X6" s="14">
         <v>6</v>
       </c>
-      <c r="AI6" s="53" t="s">
+      <c r="AI6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
       <c r="AL6">
         <v>4</v>
       </c>
@@ -2750,11 +2751,11 @@
       <c r="AN7">
         <v>17</v>
       </c>
-      <c r="AU7" s="53" t="s">
+      <c r="AU7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
     </row>
     <row r="8" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48">
@@ -2859,11 +2860,11 @@
       <c r="AN9">
         <v>8</v>
       </c>
-      <c r="AU9" s="53" t="s">
+      <c r="AU9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AV9" s="53"/>
-      <c r="AW9" s="53"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="57"/>
     </row>
     <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48">
@@ -2945,16 +2946,16 @@
       <c r="X11" s="14">
         <v>7</v>
       </c>
-      <c r="AI11" s="53" t="s">
+      <c r="AI11" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AU11" s="53" t="s">
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="57"/>
+      <c r="AU11" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AV11" s="53"/>
-      <c r="AW11" s="53"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="57"/>
     </row>
     <row r="12" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48">
@@ -2975,11 +2976,11 @@
       <c r="J12"/>
       <c r="K12" s="26"/>
       <c r="L12"/>
-      <c r="V12" s="53" t="s">
+      <c r="V12" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
       <c r="AI12" s="14">
         <v>13</v>
       </c>
@@ -3036,11 +3037,11 @@
       <c r="AK13" s="14">
         <v>3</v>
       </c>
-      <c r="AU13" s="53" t="s">
+      <c r="AU13" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="57"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="48">
@@ -3594,13 +3595,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="AI11:AK11"/>
     <mergeCell ref="AU13:AW13"/>
     <mergeCell ref="AU11:AW11"/>
     <mergeCell ref="AL3:AN3"/>
@@ -3610,6 +3604,13 @@
     <mergeCell ref="AU5:AW5"/>
     <mergeCell ref="AU9:AW9"/>
     <mergeCell ref="AU7:AW7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="AI11:AK11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3620,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6656B1-986B-4CD6-84BB-FEF14906E93B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -3629,4 +3630,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1D3BE0-E755-4AFA-AFA4-25C6C8DEFFEC}">
+  <dimension ref="E2:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>